--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H2">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.003058333333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N2">
-        <v>0.009175000000000001</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q2">
-        <v>0.0007060315416666667</v>
+        <v>75.70264527570868</v>
       </c>
       <c r="R2">
-        <v>0.006354283875</v>
+        <v>681.3238074813781</v>
       </c>
       <c r="S2">
-        <v>7.233361371369977E-06</v>
+        <v>0.8067121753215419</v>
       </c>
       <c r="T2">
-        <v>7.233361371369978E-06</v>
+        <v>0.8067121753215422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H3">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,90 +611,90 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.097779</v>
+        <v>0.205015</v>
       </c>
       <c r="N3">
-        <v>78.29333699999999</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q3">
-        <v>6.024802771045</v>
+        <v>0.5946934343033334</v>
       </c>
       <c r="R3">
-        <v>54.22322493940499</v>
+        <v>5.352240908730001</v>
       </c>
       <c r="S3">
-        <v>0.06172468659307375</v>
+        <v>0.006337247955986827</v>
       </c>
       <c r="T3">
-        <v>0.06172468659307375</v>
+        <v>0.006337247955986828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.230855</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H4">
-        <v>0.692565</v>
+        <v>2.000961</v>
       </c>
       <c r="I4">
-        <v>0.06377305075821572</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J4">
-        <v>0.06377305075821572</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8630093333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N4">
-        <v>2.589028</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q4">
-        <v>0.1992300196466667</v>
+        <v>17.406879321873</v>
       </c>
       <c r="R4">
-        <v>1.79307017682</v>
+        <v>156.661913896857</v>
       </c>
       <c r="S4">
-        <v>0.002041130803770601</v>
+        <v>0.1854934055760614</v>
       </c>
       <c r="T4">
-        <v>0.002041130803770601</v>
+        <v>0.1854934055760614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +702,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,356 +717,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H5">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I5">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J5">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.003058333333333333</v>
+        <v>0.205015</v>
       </c>
       <c r="N5">
-        <v>0.009175000000000001</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O5">
-        <v>0.0001134234803787887</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P5">
-        <v>0.0001134234803787887</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q5">
-        <v>0.008871403327777779</v>
+        <v>0.136742339805</v>
       </c>
       <c r="R5">
-        <v>0.07984262995000001</v>
+        <v>1.230681058245</v>
       </c>
       <c r="S5">
-        <v>9.088838437658211E-05</v>
+        <v>0.001457171146409671</v>
       </c>
       <c r="T5">
-        <v>9.088838437658213E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.900731333333333</v>
-      </c>
-      <c r="H6">
-        <v>8.702194</v>
-      </c>
-      <c r="I6">
-        <v>0.8013189515350044</v>
-      </c>
-      <c r="J6">
-        <v>0.8013189515350045</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>26.097779</v>
-      </c>
-      <c r="N6">
-        <v>78.29333699999999</v>
-      </c>
-      <c r="O6">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="P6">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="Q6">
-        <v>75.70264527570866</v>
-      </c>
-      <c r="R6">
-        <v>681.323807481378</v>
-      </c>
-      <c r="S6">
-        <v>0.775580916335834</v>
-      </c>
-      <c r="T6">
-        <v>0.7755809163358341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.900731333333333</v>
-      </c>
-      <c r="H7">
-        <v>8.702194</v>
-      </c>
-      <c r="I7">
-        <v>0.8013189515350044</v>
-      </c>
-      <c r="J7">
-        <v>0.8013189515350045</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.8630093333333333</v>
-      </c>
-      <c r="N7">
-        <v>2.589028</v>
-      </c>
-      <c r="O7">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="P7">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="Q7">
-        <v>2.503358214159111</v>
-      </c>
-      <c r="R7">
-        <v>22.530223927432</v>
-      </c>
-      <c r="S7">
-        <v>0.02564714681479385</v>
-      </c>
-      <c r="T7">
-        <v>0.02564714681479386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.465079</v>
-      </c>
-      <c r="I8">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J8">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.003058333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.009175000000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.0001134234803787887</v>
-      </c>
-      <c r="P8">
-        <v>0.0001134234803787887</v>
-      </c>
-      <c r="Q8">
-        <v>0.001493566647222223</v>
-      </c>
-      <c r="R8">
-        <v>0.013442099825</v>
-      </c>
-      <c r="S8">
-        <v>1.530173463083661E-05</v>
-      </c>
-      <c r="T8">
-        <v>1.530173463083661E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.465079</v>
-      </c>
-      <c r="I9">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J9">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.097779</v>
-      </c>
-      <c r="N9">
-        <v>78.29333699999999</v>
-      </c>
-      <c r="O9">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="P9">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="Q9">
-        <v>12.74510265318034</v>
-      </c>
-      <c r="R9">
-        <v>114.705923878623</v>
-      </c>
-      <c r="S9">
-        <v>0.1305748082982737</v>
-      </c>
-      <c r="T9">
-        <v>0.1305748082982737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.465079</v>
-      </c>
-      <c r="I10">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J10">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.8630093333333333</v>
-      </c>
-      <c r="N10">
-        <v>2.589028</v>
-      </c>
-      <c r="O10">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="P10">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="Q10">
-        <v>0.421458950356889</v>
-      </c>
-      <c r="R10">
-        <v>3.793130553212</v>
-      </c>
-      <c r="S10">
-        <v>0.004317887673875274</v>
-      </c>
-      <c r="T10">
-        <v>0.004317887673875274</v>
+        <v>0.001457171146409671</v>
       </c>
     </row>
   </sheetData>
